--- a/docs/Cornell_Densimeter_fitting/CMASS/CMASS_cali_data.xlsx
+++ b/docs/Cornell_Densimeter_fitting/CMASS/CMASS_cali_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\DiadFit\docs\Cornell_Densimeter_fitting\CMASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\Cornell_Densimeter_fitting\CMASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE99EB0-5365-473C-843F-47FD2C8354A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BED5FF-ED60-4A44-8579-61140ACDB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April_Used2FitEG_Eqs" sheetId="5" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1491,12 +1491,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1539,6 +1548,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,15 +1898,15 @@
   <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>44306</v>
       </c>
@@ -2070,7 +2086,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>44306</v>
       </c>
@@ -2164,7 +2180,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>44306</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>44306</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>44306</v>
       </c>
@@ -2446,7 +2462,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>44306</v>
       </c>
@@ -2540,7 +2556,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>44306</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>44306</v>
       </c>
@@ -2731,7 +2747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>44306</v>
       </c>
@@ -2825,7 +2841,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>44306</v>
       </c>
@@ -2919,7 +2935,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>44306</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>44306</v>
       </c>
@@ -3107,7 +3123,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>44306</v>
       </c>
@@ -3201,7 +3217,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>44306</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>44306</v>
       </c>
@@ -3389,7 +3405,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>44306</v>
       </c>
@@ -3483,7 +3499,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>44306</v>
       </c>
@@ -3577,7 +3593,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>44306</v>
       </c>
@@ -3671,7 +3687,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>44306</v>
       </c>
@@ -3765,7 +3781,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>44306</v>
       </c>
@@ -3859,7 +3875,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>44306</v>
       </c>
@@ -3953,7 +3969,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>44306</v>
       </c>
@@ -4050,7 +4066,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>44306</v>
       </c>
@@ -4147,7 +4163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>44306</v>
       </c>
@@ -4244,7 +4260,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>44306</v>
       </c>
@@ -4338,7 +4354,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>44306</v>
       </c>
@@ -4432,7 +4448,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>44306</v>
       </c>
@@ -4526,7 +4542,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>44306</v>
       </c>
@@ -4620,7 +4636,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>44306</v>
       </c>
@@ -4714,7 +4730,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>44306</v>
       </c>
@@ -4808,7 +4824,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>44306</v>
       </c>
@@ -4905,7 +4921,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>44306</v>
       </c>
@@ -4999,7 +5015,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>44306</v>
       </c>
@@ -5093,7 +5109,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>44306</v>
       </c>
@@ -5187,7 +5203,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>44306</v>
       </c>
@@ -5281,7 +5297,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>44306</v>
       </c>
@@ -5375,7 +5391,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>44306</v>
       </c>
@@ -5469,7 +5485,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>44306</v>
       </c>
@@ -5563,7 +5579,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>44306</v>
       </c>
@@ -5657,7 +5673,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>44306</v>
       </c>
@@ -5751,7 +5767,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>44306</v>
       </c>
@@ -5845,7 +5861,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>44306</v>
       </c>
@@ -5939,7 +5955,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>44306</v>
       </c>
@@ -6033,7 +6049,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>44306</v>
       </c>
@@ -6127,7 +6143,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>44306</v>
       </c>
@@ -6221,7 +6237,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>44306</v>
       </c>
@@ -6315,7 +6331,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>44306</v>
       </c>
@@ -6409,7 +6425,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>44306</v>
       </c>
@@ -6503,7 +6519,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>44306</v>
       </c>
@@ -6597,7 +6613,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>44306</v>
       </c>
@@ -6691,7 +6707,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>44306</v>
       </c>
@@ -6785,7 +6801,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>44306</v>
       </c>
@@ -6879,7 +6895,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>44306</v>
       </c>
@@ -6973,7 +6989,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>44306</v>
       </c>
@@ -7067,7 +7083,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>44306</v>
       </c>
@@ -7161,7 +7177,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>44306</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>44306</v>
       </c>
@@ -7349,7 +7365,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>44306</v>
       </c>
@@ -7443,7 +7459,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>44306</v>
       </c>
@@ -7537,7 +7553,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>44306</v>
       </c>
@@ -7631,7 +7647,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>44306</v>
       </c>
@@ -7725,7 +7741,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>44306</v>
       </c>
@@ -7819,7 +7835,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>44306</v>
       </c>
@@ -7913,7 +7929,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>44306</v>
       </c>
@@ -8007,7 +8023,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>44306</v>
       </c>
@@ -8101,7 +8117,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>44306</v>
       </c>
@@ -8195,7 +8211,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>44306</v>
       </c>
@@ -8289,7 +8305,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>44306</v>
       </c>
@@ -8383,7 +8399,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>44306</v>
       </c>
@@ -8477,7 +8493,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>44306</v>
       </c>
@@ -8571,7 +8587,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>44306</v>
       </c>
@@ -8665,7 +8681,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>44306</v>
       </c>
@@ -8759,7 +8775,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>44306</v>
       </c>
@@ -8856,7 +8872,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>44306</v>
       </c>
@@ -8950,7 +8966,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>44306</v>
       </c>
@@ -9047,7 +9063,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>44306</v>
       </c>
@@ -9141,7 +9157,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>44306</v>
       </c>
@@ -9235,7 +9251,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>44306</v>
       </c>
@@ -9329,7 +9345,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>44306</v>
       </c>
@@ -9423,7 +9439,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>44306</v>
       </c>
@@ -9520,7 +9536,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>44306</v>
       </c>
@@ -9614,7 +9630,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>44306</v>
       </c>
@@ -9708,7 +9724,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>44306</v>
       </c>
@@ -9802,7 +9818,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>44306</v>
       </c>
@@ -9896,7 +9912,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>44306</v>
       </c>
@@ -9990,7 +10006,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
         <v>44306</v>
       </c>
@@ -10084,7 +10100,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
         <v>44306</v>
       </c>
@@ -10178,7 +10194,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
         <v>44306</v>
       </c>
@@ -10272,7 +10288,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
         <v>44306</v>
       </c>
@@ -10366,7 +10382,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>44306</v>
       </c>
@@ -10463,7 +10479,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>44307</v>
       </c>
@@ -10557,7 +10573,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>44307</v>
       </c>
@@ -10651,7 +10667,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="94" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>44307</v>
       </c>
@@ -10745,7 +10761,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="95" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>44307</v>
       </c>
@@ -10839,7 +10855,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>44307</v>
       </c>
@@ -10933,7 +10949,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="97" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>44307</v>
       </c>
@@ -11027,7 +11043,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="98" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>44307</v>
       </c>
@@ -11121,7 +11137,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>44307</v>
       </c>
@@ -11218,7 +11234,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>44307</v>
       </c>
@@ -11315,7 +11331,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>44307</v>
       </c>
@@ -11412,7 +11428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>44307</v>
       </c>
@@ -11509,7 +11525,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>44307</v>
       </c>
@@ -11606,7 +11622,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>44307</v>
       </c>
@@ -11703,7 +11719,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>44307</v>
       </c>
@@ -11800,7 +11816,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>44307</v>
       </c>
@@ -11894,7 +11910,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="107" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="17">
         <v>44307</v>
       </c>
@@ -11991,7 +12007,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>44307</v>
       </c>
@@ -12088,7 +12104,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>44307</v>
       </c>
@@ -12185,7 +12201,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>44307</v>
       </c>
@@ -12279,7 +12295,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="111" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="17">
         <v>44307</v>
       </c>
@@ -12376,7 +12392,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="17">
         <v>44307</v>
       </c>
@@ -12473,7 +12489,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="17">
         <v>44307</v>
       </c>
@@ -12570,7 +12586,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="114" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="17">
         <v>44307</v>
       </c>
@@ -12664,7 +12680,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="115" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>44307</v>
       </c>
@@ -12761,7 +12777,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>44307</v>
       </c>
@@ -12858,7 +12874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>44307</v>
       </c>
@@ -12955,7 +12971,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>44307</v>
       </c>
@@ -13049,7 +13065,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="119" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>44307</v>
       </c>
@@ -13146,7 +13162,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>44307</v>
       </c>
@@ -13243,7 +13259,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>44307</v>
       </c>
@@ -13340,7 +13356,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>44307</v>
       </c>
@@ -13434,7 +13450,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="123" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>44307</v>
       </c>
@@ -13528,7 +13544,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="124" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>44307</v>
       </c>
@@ -13622,7 +13638,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="125" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="17">
         <v>44307</v>
       </c>
@@ -13716,7 +13732,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="126" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>44307</v>
       </c>
@@ -13810,7 +13826,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="127" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>44307</v>
       </c>
@@ -13904,7 +13920,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="128" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>44307</v>
       </c>
@@ -13998,7 +14014,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="129" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="17">
         <v>44307</v>
       </c>
@@ -14092,7 +14108,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="130" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="17">
         <v>44307</v>
       </c>
@@ -14186,7 +14202,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="131" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="17">
         <v>44307</v>
       </c>
@@ -14280,7 +14296,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="132" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="17">
         <v>44307</v>
       </c>
@@ -14374,7 +14390,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="133" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="17">
         <v>44307</v>
       </c>
@@ -14468,7 +14484,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="134" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="17">
         <v>44307</v>
       </c>
@@ -14562,7 +14578,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="135" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="17">
         <v>44307</v>
       </c>
@@ -14656,101 +14672,101 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="136" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="26">
+    <row r="136" spans="1:28" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="34">
         <v>44307</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B136" s="35">
         <v>0.20123842592592592</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C136" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="37">
         <v>1284.594826</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="37">
         <v>1387.2267850000001</v>
       </c>
-      <c r="G136" s="16">
+      <c r="G136" s="37">
         <f t="shared" si="16"/>
         <v>1285.1871613513658</v>
       </c>
-      <c r="H136" s="16">
+      <c r="H136" s="37">
         <f t="shared" si="17"/>
         <v>1387.885190884263</v>
       </c>
-      <c r="I136" s="19">
+      <c r="I136" s="38">
         <f t="shared" si="18"/>
         <v>102.63195900000005</v>
       </c>
-      <c r="J136" s="19">
+      <c r="J136" s="38">
         <f t="shared" si="19"/>
         <v>102.69802953289718</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="37">
         <v>0.10100000000000001</v>
       </c>
-      <c r="L136" s="16">
+      <c r="L136" s="37">
         <v>29</v>
       </c>
-      <c r="M136" s="16">
+      <c r="M136" s="37">
         <v>37</v>
       </c>
-      <c r="N136" s="16">
+      <c r="N136" s="37">
         <v>37.01</v>
       </c>
-      <c r="O136" s="16">
+      <c r="O136" s="37">
         <v>1.7313000000000001E-3</v>
       </c>
-      <c r="P136" s="16" t="s">
+      <c r="P136" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="Q136" s="18">
+      <c r="Q136" s="39">
         <v>0.20309027777777777</v>
       </c>
-      <c r="R136" s="16">
+      <c r="R136" s="37">
         <v>1115.5084429999999</v>
       </c>
-      <c r="S136" s="16">
+      <c r="S136" s="37">
         <v>1445.7734660000001</v>
       </c>
-      <c r="T136" s="16">
+      <c r="T136" s="37">
         <f t="shared" si="20"/>
         <v>330.26502300000016</v>
       </c>
-      <c r="U136" s="16">
+      <c r="U136" s="37">
         <f t="shared" si="21"/>
         <v>330.47763499999996</v>
       </c>
-      <c r="V136" s="16">
+      <c r="V136" s="37">
         <v>1115.991927</v>
       </c>
-      <c r="W136" s="16">
+      <c r="W136" s="37">
         <v>1446.469562</v>
       </c>
-      <c r="X136" s="20">
+      <c r="X136" s="40">
         <f t="shared" si="22"/>
         <v>1.0006437617827904</v>
       </c>
-      <c r="Y136" s="16">
+      <c r="Y136" s="37">
         <f t="shared" si="23"/>
         <v>-0.23463770398325323</v>
       </c>
-      <c r="Z136" s="16" t="s">
+      <c r="Z136" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="AA136" s="16" t="s">
+      <c r="AA136" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AB136" s="16">
+      <c r="AB136" s="37">
         <v>1850</v>
       </c>
     </row>
-    <row r="137" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>44307</v>
       </c>
@@ -14844,7 +14860,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="138" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="17">
         <v>44307</v>
       </c>
@@ -14938,7 +14954,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="139" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="17">
         <v>44307</v>
       </c>
@@ -15032,7 +15048,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="140" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>44307</v>
       </c>
@@ -15126,7 +15142,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="141" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="17">
         <v>44307</v>
       </c>
@@ -15220,7 +15236,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="142" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="17">
         <v>44307</v>
       </c>
@@ -15314,7 +15330,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="143" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="17">
         <v>44307</v>
       </c>
@@ -15408,7 +15424,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="144" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>44307</v>
       </c>
@@ -15502,7 +15518,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="145" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="17">
         <v>44307</v>
       </c>
@@ -15596,7 +15612,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="146" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="17">
         <v>44307</v>
       </c>
@@ -15690,7 +15706,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="147" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="17">
         <v>44307</v>
       </c>
@@ -15784,7 +15800,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="148" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="17">
         <v>44307</v>
       </c>
@@ -15878,7 +15894,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="149" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="17">
         <v>44307</v>
       </c>
@@ -15972,7 +15988,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="150" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="17">
         <v>44307</v>
       </c>
@@ -16066,7 +16082,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="151" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
         <v>44307</v>
       </c>
@@ -16160,7 +16176,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="152" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="17">
         <v>44307</v>
       </c>
@@ -16254,7 +16270,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="153" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="17">
         <v>44307</v>
       </c>
@@ -16348,7 +16364,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="154" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="17">
         <v>44307</v>
       </c>
@@ -16442,7 +16458,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="155" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="17">
         <v>44307</v>
       </c>
@@ -16536,7 +16552,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="156" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="17">
         <v>44307</v>
       </c>
@@ -16630,7 +16646,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="157" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="17">
         <v>44307</v>
       </c>
@@ -16724,7 +16740,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="158" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="17">
         <v>44307</v>
       </c>
@@ -16818,7 +16834,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="159" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="17">
         <v>44307</v>
       </c>
@@ -16912,7 +16928,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="160" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="17">
         <v>44307</v>
       </c>
@@ -17006,7 +17022,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="161" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="17">
         <v>44307</v>
       </c>
@@ -17100,7 +17116,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="162" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="17">
         <v>44307</v>
       </c>
@@ -17194,7 +17210,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="163" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>44307</v>
       </c>
@@ -17288,7 +17304,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="164" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="17">
         <v>44307</v>
       </c>
@@ -17382,7 +17398,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="165" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="17">
         <v>44307</v>
       </c>
@@ -17476,7 +17492,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="166" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="17">
         <v>44307</v>
       </c>
@@ -17570,7 +17586,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="167" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="17">
         <v>44307</v>
       </c>
@@ -17664,7 +17680,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="168" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="17">
         <v>44307</v>
       </c>
@@ -17758,7 +17774,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="169" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="17">
         <v>44307</v>
       </c>
@@ -17852,7 +17868,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="170" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="17">
         <v>44307</v>
       </c>
@@ -17949,7 +17965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="17">
         <v>44307</v>
       </c>
@@ -18043,7 +18059,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="172" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="17">
         <v>44307</v>
       </c>
@@ -18137,7 +18153,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="173" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="17">
         <v>44307</v>
       </c>
@@ -18234,7 +18250,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="17">
         <v>44307</v>
       </c>
@@ -18328,7 +18344,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="175" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="17">
         <v>44307</v>
       </c>
@@ -18422,7 +18438,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="176" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="17">
         <v>44307</v>
       </c>
@@ -18516,7 +18532,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="177" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="17">
         <v>44307</v>
       </c>
@@ -18610,7 +18626,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="178" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="17">
         <v>44307</v>
       </c>
@@ -18704,7 +18720,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="179" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="17">
         <v>44307</v>
       </c>
@@ -18798,7 +18814,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="180" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="17">
         <v>44307</v>
       </c>
@@ -18892,7 +18908,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="181" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="17">
         <v>44307</v>
       </c>
@@ -18986,7 +19002,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="182" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="17">
         <v>44307</v>
       </c>
@@ -19080,7 +19096,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="183" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="17">
         <v>44307</v>
       </c>
@@ -19174,7 +19190,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="184" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="17">
         <v>44307</v>
       </c>
@@ -19268,7 +19284,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="185" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="17">
         <v>44307</v>
       </c>
@@ -19365,7 +19381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="17">
         <v>44307</v>
       </c>
@@ -19459,7 +19475,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="187" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="17">
         <v>44307</v>
       </c>
@@ -19553,7 +19569,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="188" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="17">
         <v>44307</v>
       </c>
@@ -19647,7 +19663,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="17">
         <v>44307</v>
       </c>
@@ -19741,7 +19757,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="190" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="17">
         <v>44307</v>
       </c>
@@ -19835,7 +19851,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="17">
         <v>44307</v>
       </c>
@@ -19929,7 +19945,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="192" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="17">
         <v>44307</v>
       </c>
@@ -20023,7 +20039,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="193" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="17">
         <v>44307</v>
       </c>
@@ -20117,7 +20133,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="194" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="17">
         <v>44307</v>
       </c>
@@ -20211,7 +20227,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="195" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="17">
         <v>44307</v>
       </c>
@@ -20305,7 +20321,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="196" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="17">
         <v>44307</v>
       </c>
@@ -20399,7 +20415,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="197" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="17">
         <v>44307</v>
       </c>
@@ -20493,7 +20509,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="198" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="17">
         <v>44307</v>
       </c>
@@ -20587,7 +20603,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="199" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="17">
         <v>44307</v>
       </c>
@@ -20681,7 +20697,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="200" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="17">
         <v>44307</v>
       </c>
@@ -20775,7 +20791,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="201" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="17">
         <v>44307</v>
       </c>
@@ -20869,7 +20885,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="202" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="17">
         <v>44307</v>
       </c>
@@ -20963,7 +20979,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="203" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="17">
         <v>44307</v>
       </c>
@@ -21057,7 +21073,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="204" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="17">
         <v>44307</v>
       </c>
@@ -21151,7 +21167,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="205" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="17">
         <v>44307</v>
       </c>
@@ -21245,7 +21261,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="206" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="17">
         <v>44307</v>
       </c>
@@ -21339,7 +21355,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="207" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="17">
         <v>44307</v>
       </c>
@@ -21433,7 +21449,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="208" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="17">
         <v>44307</v>
       </c>
@@ -21527,7 +21543,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="209" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="17">
         <v>44307</v>
       </c>
@@ -21621,7 +21637,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="210" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="17">
         <v>44307</v>
       </c>
@@ -21715,7 +21731,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="211" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="17">
         <v>44307</v>
       </c>
@@ -21809,7 +21825,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="212" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="17">
         <v>44307</v>
       </c>
@@ -21903,7 +21919,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="213" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="17">
         <v>44307</v>
       </c>
@@ -21997,7 +22013,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="214" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="17">
         <v>44307</v>
       </c>
@@ -22094,7 +22110,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="215" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="17">
         <v>44307</v>
       </c>
@@ -22188,7 +22204,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="216" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="17">
         <v>44307</v>
       </c>
@@ -22282,7 +22298,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="217" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="17">
         <v>44307</v>
       </c>
@@ -22376,7 +22392,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="218" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="17">
         <v>44307</v>
       </c>
@@ -22473,7 +22489,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="17">
         <v>44307</v>
       </c>
@@ -22567,7 +22583,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="220" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="17">
         <v>44307</v>
       </c>
@@ -22661,7 +22677,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="221" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="17">
         <v>44307</v>
       </c>
@@ -22755,7 +22771,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="222" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="17">
         <v>44307</v>
       </c>
@@ -22849,7 +22865,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="223" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="17">
         <v>44307</v>
       </c>
@@ -22943,7 +22959,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="224" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="17">
         <v>44307</v>
       </c>
@@ -23037,7 +23053,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="225" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="17">
         <v>44307</v>
       </c>
@@ -23131,7 +23147,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="226" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="17">
         <v>44307</v>
       </c>
@@ -23225,7 +23241,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="227" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="17">
         <v>44307</v>
       </c>
@@ -23319,7 +23335,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="228" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="17">
         <v>44307</v>
       </c>
@@ -23413,7 +23429,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="229" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="17">
         <v>44307</v>
       </c>
@@ -23507,7 +23523,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="230" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="17">
         <v>44307</v>
       </c>
@@ -23601,7 +23617,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="231" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="17">
         <v>44307</v>
       </c>
@@ -23695,7 +23711,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="232" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="17">
         <v>44307</v>
       </c>
@@ -23789,7 +23805,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="233" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="17">
         <v>44307</v>
       </c>
@@ -23886,7 +23902,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="234" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="17">
         <v>44307</v>
       </c>
@@ -23980,7 +23996,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="235" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="17">
         <v>44307</v>
       </c>
@@ -24074,7 +24090,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="236" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="17">
         <v>44307</v>
       </c>
@@ -24168,7 +24184,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="237" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="17">
         <v>44307</v>
       </c>
@@ -24262,7 +24278,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="238" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="17">
         <v>44307</v>
       </c>
@@ -24356,7 +24372,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="239" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="17">
         <v>44307</v>
       </c>
@@ -24450,7 +24466,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="240" spans="1:29" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="17">
         <v>44307</v>
       </c>
@@ -24544,7 +24560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="241" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="17">
         <v>44307</v>
       </c>
@@ -24638,7 +24654,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="242" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="17">
         <v>44307</v>
       </c>
@@ -24732,7 +24748,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="243" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="17">
         <v>44307</v>
       </c>
@@ -24826,7 +24842,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="244" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="17">
         <v>44307</v>
       </c>
@@ -24920,7 +24936,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="245" spans="1:28" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="17">
         <v>44307</v>
       </c>
@@ -25030,18 +25046,18 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.08984375" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -25085,7 +25101,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44434</v>
       </c>
@@ -25120,7 +25136,7 @@
         <v>0.98324</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44434</v>
       </c>
@@ -25155,7 +25171,7 @@
         <v>0.98316999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44434</v>
       </c>
@@ -25190,7 +25206,7 @@
         <v>0.98321000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44434</v>
       </c>
@@ -25225,7 +25241,7 @@
         <v>0.98314999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44434</v>
       </c>
@@ -25260,7 +25276,7 @@
         <v>0.98312999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44434</v>
       </c>
@@ -25295,7 +25311,7 @@
         <v>0.96882000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44434</v>
       </c>
@@ -25330,7 +25346,7 @@
         <v>0.96872000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44434</v>
       </c>
@@ -25365,7 +25381,7 @@
         <v>0.96869000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44434</v>
       </c>
@@ -25400,7 +25416,7 @@
         <v>0.91576000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44434</v>
       </c>
@@ -25435,7 +25451,7 @@
         <v>0.91576999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44434</v>
       </c>
@@ -25470,7 +25486,7 @@
         <v>0.91573000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44434</v>
       </c>
@@ -25505,7 +25521,7 @@
         <v>0.87782000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44434</v>
       </c>
@@ -25540,7 +25556,7 @@
         <v>0.87790999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44434</v>
       </c>
@@ -25575,7 +25591,7 @@
         <v>0.87790999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44434</v>
       </c>
@@ -25610,7 +25626,7 @@
         <v>0.80210999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44434</v>
       </c>
@@ -25645,7 +25661,7 @@
         <v>0.80222000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44434</v>
       </c>
@@ -25680,7 +25696,7 @@
         <v>0.80196999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44434</v>
       </c>
@@ -25715,7 +25731,7 @@
         <v>0.13367000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44434</v>
       </c>
@@ -25750,7 +25766,7 @@
         <v>0.13356999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44434</v>
       </c>
@@ -25785,7 +25801,7 @@
         <v>0.13353999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44434</v>
       </c>
@@ -25820,7 +25836,7 @@
         <v>0.13349</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44434</v>
       </c>
@@ -25855,7 +25871,7 @@
         <v>6.4248E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44434</v>
       </c>
@@ -25890,7 +25906,7 @@
         <v>6.4395999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44434</v>
       </c>
@@ -25925,7 +25941,7 @@
         <v>6.4478999999999995E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44434</v>
       </c>
@@ -25960,7 +25976,7 @@
         <v>3.9836999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44434</v>
       </c>
@@ -25995,7 +26011,7 @@
         <v>3.9896000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44434</v>
       </c>
@@ -26030,7 +26046,7 @@
         <v>3.9829999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44434</v>
       </c>
@@ -26065,7 +26081,7 @@
         <v>1.9234999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44434</v>
       </c>
@@ -26100,7 +26116,7 @@
         <v>1.8841E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44434</v>
       </c>
@@ -26135,7 +26151,7 @@
         <v>1.8801999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>44435</v>
       </c>
@@ -26170,7 +26186,7 @@
         <v>0.94142999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44435</v>
       </c>
@@ -26205,7 +26221,7 @@
         <v>0.94142000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44435</v>
       </c>
@@ -26240,7 +26256,7 @@
         <v>0.94147000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44435</v>
       </c>
@@ -26275,7 +26291,7 @@
         <v>0.85550999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44435</v>
       </c>
@@ -26310,7 +26326,7 @@
         <v>0.85538999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44435</v>
       </c>
@@ -26345,7 +26361,7 @@
         <v>0.85553999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44435</v>
       </c>
@@ -26380,7 +26396,7 @@
         <v>0.72245999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44435</v>
       </c>
@@ -26415,7 +26431,7 @@
         <v>0.72236</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44435</v>
       </c>
@@ -26450,7 +26466,7 @@
         <v>0.72219</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44435</v>
       </c>
@@ -26485,7 +26501,7 @@
         <v>0.60787000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44435</v>
       </c>
@@ -26520,7 +26536,7 @@
         <v>0.60850000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44435</v>
       </c>
@@ -26555,7 +26571,7 @@
         <v>0.60851999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44435</v>
       </c>
@@ -26590,7 +26606,7 @@
         <v>0.54052999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44435</v>
       </c>
@@ -26625,7 +26641,7 @@
         <v>0.54049000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44435</v>
       </c>
@@ -26660,7 +26676,7 @@
         <v>0.54010999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44435</v>
       </c>
@@ -26695,7 +26711,7 @@
         <v>0.46810000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44435</v>
       </c>
@@ -26730,7 +26746,7 @@
         <v>0.46828999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44435</v>
       </c>
@@ -26765,7 +26781,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44435</v>
       </c>
@@ -26800,7 +26816,7 @@
         <v>0.37741999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44435</v>
       </c>
@@ -26835,7 +26851,7 @@
         <v>0.37936999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44435</v>
       </c>
@@ -26870,7 +26886,7 @@
         <v>0.38092999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44435</v>
       </c>
@@ -26905,7 +26921,7 @@
         <v>0.38285000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44435</v>
       </c>
@@ -26940,7 +26956,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44435</v>
       </c>
@@ -26975,7 +26991,7 @@
         <v>0.15583</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44435</v>
       </c>
@@ -27010,7 +27026,7 @@
         <v>0.15584000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44435</v>
       </c>
@@ -27045,7 +27061,7 @@
         <v>0.15587999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44435</v>
       </c>
@@ -27080,7 +27096,7 @@
         <v>8.5258E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44435</v>
       </c>
@@ -27115,7 +27131,7 @@
         <v>8.5348999999999994E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44435</v>
       </c>
@@ -27150,7 +27166,7 @@
         <v>8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44435</v>
       </c>
@@ -27185,7 +27201,7 @@
         <v>3.7872999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44435</v>
       </c>
@@ -27220,7 +27236,7 @@
         <v>3.7772E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44435</v>
       </c>
@@ -27255,7 +27271,7 @@
         <v>3.7851000000000003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44435</v>
       </c>
@@ -27290,7 +27306,7 @@
         <v>4.8623E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44435</v>
       </c>
@@ -27325,7 +27341,7 @@
         <v>4.9138999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44435</v>
       </c>
@@ -27360,7 +27376,7 @@
         <v>4.9798999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44435</v>
       </c>
@@ -27395,7 +27411,7 @@
         <v>1.7850000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44435</v>
       </c>
@@ -27430,7 +27446,7 @@
         <v>1.7881999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44435</v>
       </c>
@@ -27484,32 +27500,32 @@
       <selection activeCell="A245" sqref="A1:XFD245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="16"/>
-    <col min="2" max="2" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.77734375" style="16"/>
+    <col min="1" max="1" width="10.81640625" style="16"/>
+    <col min="2" max="2" width="11.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.81640625" style="16"/>
     <col min="10" max="10" width="26" style="16" customWidth="1"/>
-    <col min="11" max="14" width="10.77734375" style="16"/>
-    <col min="15" max="15" width="20.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="16"/>
-    <col min="17" max="17" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.81640625" style="16"/>
+    <col min="15" max="15" width="20.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="16"/>
+    <col min="17" max="17" width="11.6328125" style="16" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.77734375" style="16"/>
-    <col min="26" max="26" width="10.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" style="16"/>
-    <col min="28" max="28" width="17.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.77734375" style="16"/>
+    <col min="22" max="22" width="12.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.81640625" style="16"/>
+    <col min="26" max="26" width="10.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.81640625" style="16"/>
+    <col min="28" max="28" width="17.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -27595,7 +27611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>44306</v>
       </c>
@@ -27689,7 +27705,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>44306</v>
       </c>
@@ -27783,7 +27799,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>44306</v>
       </c>
@@ -27877,7 +27893,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>44306</v>
       </c>
@@ -27971,7 +27987,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>44306</v>
       </c>
@@ -28065,7 +28081,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>44306</v>
       </c>
@@ -28159,7 +28175,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>44306</v>
       </c>
@@ -28253,7 +28269,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>44306</v>
       </c>
@@ -28350,7 +28366,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>44306</v>
       </c>
@@ -28444,7 +28460,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>44306</v>
       </c>
@@ -28538,7 +28554,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>44306</v>
       </c>
@@ -28632,7 +28648,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>44306</v>
       </c>
@@ -28726,7 +28742,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>44306</v>
       </c>
@@ -28820,7 +28836,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>44306</v>
       </c>
@@ -28914,7 +28930,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>44306</v>
       </c>
@@ -29008,7 +29024,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>44306</v>
       </c>
@@ -29102,7 +29118,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>44306</v>
       </c>
@@ -29196,7 +29212,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>44306</v>
       </c>
@@ -29290,7 +29306,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>44306</v>
       </c>
@@ -29384,7 +29400,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>44306</v>
       </c>
@@ -29478,7 +29494,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>44306</v>
       </c>
@@ -29572,7 +29588,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>44306</v>
       </c>
@@ -29669,7 +29685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>44306</v>
       </c>
@@ -29766,7 +29782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>44306</v>
       </c>
@@ -29863,7 +29879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>44306</v>
       </c>
@@ -29957,7 +29973,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>44306</v>
       </c>
@@ -30051,7 +30067,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>44306</v>
       </c>
@@ -30145,7 +30161,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>44306</v>
       </c>
@@ -30239,7 +30255,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>44306</v>
       </c>
@@ -30333,7 +30349,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>44306</v>
       </c>
@@ -30427,7 +30443,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>44306</v>
       </c>
@@ -30524,7 +30540,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>44306</v>
       </c>
@@ -30618,7 +30634,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>44306</v>
       </c>
@@ -30712,7 +30728,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>44306</v>
       </c>
@@ -30806,7 +30822,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>44306</v>
       </c>
@@ -30900,7 +30916,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>44306</v>
       </c>
@@ -30994,7 +31010,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>44306</v>
       </c>
@@ -31088,7 +31104,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>44306</v>
       </c>
@@ -31182,7 +31198,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>44306</v>
       </c>
@@ -31276,7 +31292,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>44306</v>
       </c>
@@ -31370,7 +31386,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>44306</v>
       </c>
@@ -31464,7 +31480,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>44306</v>
       </c>
@@ -31558,7 +31574,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>44306</v>
       </c>
@@ -31652,7 +31668,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>44306</v>
       </c>
@@ -31746,7 +31762,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>44306</v>
       </c>
@@ -31840,7 +31856,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>44306</v>
       </c>
@@ -31934,7 +31950,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>44306</v>
       </c>
@@ -32028,7 +32044,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>44306</v>
       </c>
@@ -32122,7 +32138,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>44306</v>
       </c>
@@ -32216,7 +32232,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>44306</v>
       </c>
@@ -32310,7 +32326,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>44306</v>
       </c>
@@ -32404,7 +32420,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>44306</v>
       </c>
@@ -32498,7 +32514,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>44306</v>
       </c>
@@ -32592,7 +32608,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>44306</v>
       </c>
@@ -32686,7 +32702,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>44306</v>
       </c>
@@ -32780,7 +32796,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>44306</v>
       </c>
@@ -32874,7 +32890,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>44306</v>
       </c>
@@ -32968,7 +32984,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>44306</v>
       </c>
@@ -33062,7 +33078,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>44306</v>
       </c>
@@ -33156,7 +33172,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>44306</v>
       </c>
@@ -33250,7 +33266,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>44306</v>
       </c>
@@ -33344,7 +33360,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>44306</v>
       </c>
@@ -33438,7 +33454,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>44306</v>
       </c>
@@ -33532,7 +33548,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>44306</v>
       </c>
@@ -33626,7 +33642,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>44306</v>
       </c>
@@ -33720,7 +33736,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>44306</v>
       </c>
@@ -33814,7 +33830,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>44306</v>
       </c>
@@ -33908,7 +33924,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>44306</v>
       </c>
@@ -34002,7 +34018,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>44306</v>
       </c>
@@ -34096,7 +34112,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>44306</v>
       </c>
@@ -34190,7 +34206,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>44306</v>
       </c>
@@ -34284,7 +34300,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>44306</v>
       </c>
@@ -34378,7 +34394,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>44306</v>
       </c>
@@ -34475,7 +34491,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>44306</v>
       </c>
@@ -34569,7 +34585,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>44306</v>
       </c>
@@ -34666,7 +34682,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>44306</v>
       </c>
@@ -34760,7 +34776,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>44306</v>
       </c>
@@ -34854,7 +34870,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>44306</v>
       </c>
@@ -34948,7 +34964,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>44306</v>
       </c>
@@ -35042,7 +35058,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>44306</v>
       </c>
@@ -35139,7 +35155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>44306</v>
       </c>
@@ -35233,7 +35249,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>44306</v>
       </c>
@@ -35327,7 +35343,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>44306</v>
       </c>
@@ -35421,7 +35437,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>44306</v>
       </c>
@@ -35515,7 +35531,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>44306</v>
       </c>
@@ -35609,7 +35625,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
         <v>44306</v>
       </c>
@@ -35703,7 +35719,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
         <v>44306</v>
       </c>
@@ -35797,7 +35813,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
         <v>44306</v>
       </c>
@@ -35891,7 +35907,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
         <v>44306</v>
       </c>
@@ -35985,7 +36001,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>44306</v>
       </c>
@@ -36082,7 +36098,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>44307</v>
       </c>
@@ -36176,7 +36192,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>44307</v>
       </c>
@@ -36270,7 +36286,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>44307</v>
       </c>
@@ -36364,7 +36380,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>44307</v>
       </c>
@@ -36458,7 +36474,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>44307</v>
       </c>
@@ -36552,7 +36568,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>44307</v>
       </c>
@@ -36646,7 +36662,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>44307</v>
       </c>
@@ -36740,7 +36756,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>44307</v>
       </c>
@@ -36837,7 +36853,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>44307</v>
       </c>
@@ -36934,7 +36950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>44307</v>
       </c>
@@ -37031,7 +37047,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>44307</v>
       </c>
@@ -37128,7 +37144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>44307</v>
       </c>
@@ -37225,7 +37241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>44307</v>
       </c>
@@ -37322,7 +37338,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>44307</v>
       </c>
@@ -37419,7 +37435,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>44307</v>
       </c>
@@ -37513,7 +37529,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A107" s="17">
         <v>44307</v>
       </c>
@@ -37610,7 +37626,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>44307</v>
       </c>
@@ -37707,7 +37723,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>44307</v>
       </c>
@@ -37804,7 +37820,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>44307</v>
       </c>
@@ -37898,7 +37914,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A111" s="17">
         <v>44307</v>
       </c>
@@ -37995,7 +38011,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A112" s="17">
         <v>44307</v>
       </c>
@@ -38092,7 +38108,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A113" s="17">
         <v>44307</v>
       </c>
@@ -38189,7 +38205,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A114" s="17">
         <v>44307</v>
       </c>
@@ -38283,7 +38299,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>44307</v>
       </c>
@@ -38380,7 +38396,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>44307</v>
       </c>
@@ -38477,7 +38493,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>44307</v>
       </c>
@@ -38574,7 +38590,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>44307</v>
       </c>
@@ -38668,7 +38684,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>44307</v>
       </c>
@@ -38765,7 +38781,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>44307</v>
       </c>
@@ -38862,7 +38878,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>44307</v>
       </c>
@@ -38959,7 +38975,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>44307</v>
       </c>
@@ -39053,7 +39069,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>44307</v>
       </c>
@@ -39147,7 +39163,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>44307</v>
       </c>
@@ -39241,7 +39257,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A125" s="17">
         <v>44307</v>
       </c>
@@ -39335,7 +39351,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>44307</v>
       </c>
@@ -39429,7 +39445,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>44307</v>
       </c>
@@ -39523,7 +39539,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>44307</v>
       </c>
@@ -39617,7 +39633,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A129" s="17">
         <v>44307</v>
       </c>
@@ -39711,7 +39727,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A130" s="17">
         <v>44307</v>
       </c>
@@ -39805,7 +39821,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A131" s="17">
         <v>44307</v>
       </c>
@@ -39899,7 +39915,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A132" s="17">
         <v>44307</v>
       </c>
@@ -39993,7 +40009,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A133" s="17">
         <v>44307</v>
       </c>
@@ -40087,7 +40103,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A134" s="17">
         <v>44307</v>
       </c>
@@ -40181,7 +40197,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A135" s="17">
         <v>44307</v>
       </c>
@@ -40275,7 +40291,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>44307</v>
       </c>
@@ -40369,7 +40385,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>44307</v>
       </c>
@@ -40463,7 +40479,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A138" s="17">
         <v>44307</v>
       </c>
@@ -40557,7 +40573,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A139" s="17">
         <v>44307</v>
       </c>
@@ -40651,7 +40667,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>44307</v>
       </c>
@@ -40745,7 +40761,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A141" s="17">
         <v>44307</v>
       </c>
@@ -40839,7 +40855,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A142" s="17">
         <v>44307</v>
       </c>
@@ -40933,7 +40949,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A143" s="17">
         <v>44307</v>
       </c>
@@ -41027,7 +41043,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>44307</v>
       </c>
@@ -41121,7 +41137,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A145" s="17">
         <v>44307</v>
       </c>
@@ -41215,7 +41231,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A146" s="17">
         <v>44307</v>
       </c>
@@ -41309,7 +41325,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A147" s="17">
         <v>44307</v>
       </c>
@@ -41403,7 +41419,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A148" s="17">
         <v>44307</v>
       </c>
@@ -41497,7 +41513,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A149" s="17">
         <v>44307</v>
       </c>
@@ -41591,7 +41607,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A150" s="17">
         <v>44307</v>
       </c>
@@ -41685,7 +41701,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
         <v>44307</v>
       </c>
@@ -41779,7 +41795,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152" s="17">
         <v>44307</v>
       </c>
@@ -41873,7 +41889,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153" s="17">
         <v>44307</v>
       </c>
@@ -41967,7 +41983,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154" s="17">
         <v>44307</v>
       </c>
@@ -42061,7 +42077,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155" s="17">
         <v>44307</v>
       </c>
@@ -42155,7 +42171,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156" s="17">
         <v>44307</v>
       </c>
@@ -42249,7 +42265,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A157" s="17">
         <v>44307</v>
       </c>
@@ -42343,7 +42359,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A158" s="17">
         <v>44307</v>
       </c>
@@ -42437,7 +42453,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A159" s="17">
         <v>44307</v>
       </c>
@@ -42531,7 +42547,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160" s="17">
         <v>44307</v>
       </c>
@@ -42625,7 +42641,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A161" s="17">
         <v>44307</v>
       </c>
@@ -42719,7 +42735,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A162" s="17">
         <v>44307</v>
       </c>
@@ -42813,7 +42829,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>44307</v>
       </c>
@@ -42907,7 +42923,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A164" s="17">
         <v>44307</v>
       </c>
@@ -43001,7 +43017,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A165" s="17">
         <v>44307</v>
       </c>
@@ -43095,7 +43111,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A166" s="17">
         <v>44307</v>
       </c>
@@ -43189,7 +43205,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A167" s="17">
         <v>44307</v>
       </c>
@@ -43283,7 +43299,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A168" s="17">
         <v>44307</v>
       </c>
@@ -43377,7 +43393,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A169" s="17">
         <v>44307</v>
       </c>
@@ -43471,7 +43487,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A170" s="17">
         <v>44307</v>
       </c>
@@ -43568,7 +43584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A171" s="17">
         <v>44307</v>
       </c>
@@ -43662,7 +43678,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A172" s="17">
         <v>44307</v>
       </c>
@@ -43756,7 +43772,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A173" s="17">
         <v>44307</v>
       </c>
@@ -43853,7 +43869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A174" s="17">
         <v>44307</v>
       </c>
@@ -43947,7 +43963,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A175" s="17">
         <v>44307</v>
       </c>
@@ -44041,7 +44057,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A176" s="17">
         <v>44307</v>
       </c>
@@ -44135,7 +44151,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A177" s="17">
         <v>44307</v>
       </c>
@@ -44229,7 +44245,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A178" s="17">
         <v>44307</v>
       </c>
@@ -44323,7 +44339,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A179" s="17">
         <v>44307</v>
       </c>
@@ -44417,7 +44433,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A180" s="17">
         <v>44307</v>
       </c>
@@ -44511,7 +44527,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A181" s="17">
         <v>44307</v>
       </c>
@@ -44605,7 +44621,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A182" s="17">
         <v>44307</v>
       </c>
@@ -44699,7 +44715,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A183" s="17">
         <v>44307</v>
       </c>
@@ -44793,7 +44809,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A184" s="17">
         <v>44307</v>
       </c>
@@ -44887,7 +44903,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A185" s="17">
         <v>44307</v>
       </c>
@@ -44984,7 +45000,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A186" s="17">
         <v>44307</v>
       </c>
@@ -45078,7 +45094,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A187" s="17">
         <v>44307</v>
       </c>
@@ -45172,7 +45188,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A188" s="17">
         <v>44307</v>
       </c>
@@ -45266,7 +45282,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A189" s="17">
         <v>44307</v>
       </c>
@@ -45360,7 +45376,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A190" s="17">
         <v>44307</v>
       </c>
@@ -45454,7 +45470,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A191" s="17">
         <v>44307</v>
       </c>
@@ -45548,7 +45564,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A192" s="17">
         <v>44307</v>
       </c>
@@ -45642,7 +45658,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A193" s="17">
         <v>44307</v>
       </c>
@@ -45736,7 +45752,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A194" s="17">
         <v>44307</v>
       </c>
@@ -45830,7 +45846,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A195" s="17">
         <v>44307</v>
       </c>
@@ -45924,7 +45940,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A196" s="17">
         <v>44307</v>
       </c>
@@ -46018,7 +46034,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A197" s="17">
         <v>44307</v>
       </c>
@@ -46112,7 +46128,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A198" s="17">
         <v>44307</v>
       </c>
@@ -46206,7 +46222,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A199" s="17">
         <v>44307</v>
       </c>
@@ -46300,7 +46316,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A200" s="17">
         <v>44307</v>
       </c>
@@ -46394,7 +46410,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A201" s="17">
         <v>44307</v>
       </c>
@@ -46488,7 +46504,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A202" s="17">
         <v>44307</v>
       </c>
@@ -46582,7 +46598,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A203" s="17">
         <v>44307</v>
       </c>
@@ -46676,7 +46692,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A204" s="17">
         <v>44307</v>
       </c>
@@ -46770,7 +46786,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A205" s="17">
         <v>44307</v>
       </c>
@@ -46864,7 +46880,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A206" s="17">
         <v>44307</v>
       </c>
@@ -46958,7 +46974,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A207" s="17">
         <v>44307</v>
       </c>
@@ -47052,7 +47068,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A208" s="17">
         <v>44307</v>
       </c>
@@ -47146,7 +47162,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A209" s="17">
         <v>44307</v>
       </c>
@@ -47240,7 +47256,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A210" s="17">
         <v>44307</v>
       </c>
@@ -47334,7 +47350,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A211" s="17">
         <v>44307</v>
       </c>
@@ -47428,7 +47444,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A212" s="17">
         <v>44307</v>
       </c>
@@ -47522,7 +47538,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A213" s="17">
         <v>44307</v>
       </c>
@@ -47616,7 +47632,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A214" s="17">
         <v>44307</v>
       </c>
@@ -47713,7 +47729,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A215" s="17">
         <v>44307</v>
       </c>
@@ -47807,7 +47823,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A216" s="17">
         <v>44307</v>
       </c>
@@ -47901,7 +47917,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A217" s="17">
         <v>44307</v>
       </c>
@@ -47995,7 +48011,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A218" s="17">
         <v>44307</v>
       </c>
@@ -48092,7 +48108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A219" s="17">
         <v>44307</v>
       </c>
@@ -48186,7 +48202,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A220" s="17">
         <v>44307</v>
       </c>
@@ -48280,7 +48296,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A221" s="17">
         <v>44307</v>
       </c>
@@ -48374,7 +48390,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A222" s="17">
         <v>44307</v>
       </c>
@@ -48468,7 +48484,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A223" s="17">
         <v>44307</v>
       </c>
@@ -48562,7 +48578,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A224" s="17">
         <v>44307</v>
       </c>
@@ -48656,7 +48672,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A225" s="17">
         <v>44307</v>
       </c>
@@ -48750,7 +48766,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A226" s="17">
         <v>44307</v>
       </c>
@@ -48844,7 +48860,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A227" s="17">
         <v>44307</v>
       </c>
@@ -48938,7 +48954,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A228" s="17">
         <v>44307</v>
       </c>
@@ -49032,7 +49048,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A229" s="17">
         <v>44307</v>
       </c>
@@ -49126,7 +49142,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A230" s="17">
         <v>44307</v>
       </c>
@@ -49220,7 +49236,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A231" s="17">
         <v>44307</v>
       </c>
@@ -49314,7 +49330,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A232" s="17">
         <v>44307</v>
       </c>
@@ -49408,7 +49424,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A233" s="17">
         <v>44307</v>
       </c>
@@ -49505,7 +49521,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A234" s="17">
         <v>44307</v>
       </c>
@@ -49599,7 +49615,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A235" s="17">
         <v>44307</v>
       </c>
@@ -49693,7 +49709,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A236" s="17">
         <v>44307</v>
       </c>
@@ -49787,7 +49803,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A237" s="17">
         <v>44307</v>
       </c>
@@ -49881,7 +49897,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A238" s="17">
         <v>44307</v>
       </c>
@@ -49975,7 +49991,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A239" s="17">
         <v>44307</v>
       </c>
@@ -50069,7 +50085,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A240" s="17">
         <v>44307</v>
       </c>
@@ -50163,7 +50179,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A241" s="17">
         <v>44307</v>
       </c>
@@ -50257,7 +50273,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A242" s="17">
         <v>44307</v>
       </c>
@@ -50351,7 +50367,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A243" s="17">
         <v>44307</v>
       </c>
@@ -50445,7 +50461,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A244" s="17">
         <v>44307</v>
       </c>
@@ -50539,7 +50555,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A245" s="17">
         <v>44307</v>
       </c>
@@ -50633,7 +50649,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="246" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>44434</v>
       </c>
@@ -50671,7 +50687,7 @@
         <v>0.98316999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>44434</v>
       </c>
@@ -50709,7 +50725,7 @@
         <v>0.98321000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>44434</v>
       </c>
@@ -50747,7 +50763,7 @@
         <v>0.98314999999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>44434</v>
       </c>
@@ -50785,7 +50801,7 @@
         <v>0.98312999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>44434</v>
       </c>
@@ -50823,7 +50839,7 @@
         <v>0.96882000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>44434</v>
       </c>
@@ -50861,7 +50877,7 @@
         <v>0.96872000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>44434</v>
       </c>
@@ -50899,7 +50915,7 @@
         <v>0.96869000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>44434</v>
       </c>
@@ -50937,7 +50953,7 @@
         <v>0.91576000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>44434</v>
       </c>
@@ -50975,7 +50991,7 @@
         <v>0.91576999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>44434</v>
       </c>
@@ -51013,7 +51029,7 @@
         <v>0.91573000000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>44434</v>
       </c>
@@ -51051,7 +51067,7 @@
         <v>0.87782000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>44434</v>
       </c>
@@ -51089,7 +51105,7 @@
         <v>0.87790999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>44434</v>
       </c>
@@ -51127,7 +51143,7 @@
         <v>0.87790999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>44434</v>
       </c>
@@ -51165,7 +51181,7 @@
         <v>0.80210999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>44434</v>
       </c>
@@ -51203,7 +51219,7 @@
         <v>0.80222000000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>44434</v>
       </c>
@@ -51241,7 +51257,7 @@
         <v>0.80196999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>44434</v>
       </c>
@@ -51279,7 +51295,7 @@
         <v>0.13367000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>44434</v>
       </c>
@@ -51317,7 +51333,7 @@
         <v>0.13356999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>44434</v>
       </c>
@@ -51355,7 +51371,7 @@
         <v>0.13353999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>44434</v>
       </c>
@@ -51393,7 +51409,7 @@
         <v>0.13349</v>
       </c>
     </row>
-    <row r="266" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>44434</v>
       </c>
@@ -51431,7 +51447,7 @@
         <v>6.4248E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>44434</v>
       </c>
@@ -51469,7 +51485,7 @@
         <v>6.4395999999999995E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>44434</v>
       </c>
@@ -51507,7 +51523,7 @@
         <v>6.4478999999999995E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>44434</v>
       </c>
@@ -51545,7 +51561,7 @@
         <v>3.9836999999999997E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>44434</v>
       </c>
@@ -51583,7 +51599,7 @@
         <v>3.9896000000000001E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>44434</v>
       </c>
@@ -51621,7 +51637,7 @@
         <v>3.9829999999999997E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>44434</v>
       </c>
@@ -51659,7 +51675,7 @@
         <v>1.9234999999999999E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>44434</v>
       </c>
@@ -51697,7 +51713,7 @@
         <v>1.8841E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>44434</v>
       </c>
@@ -51735,7 +51751,7 @@
         <v>1.8801999999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:15" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A275" s="7">
         <v>44435</v>
       </c>
@@ -51773,7 +51789,7 @@
         <v>0.94142999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>44435</v>
       </c>
@@ -51811,7 +51827,7 @@
         <v>0.94142000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>44435</v>
       </c>
@@ -51849,7 +51865,7 @@
         <v>0.94147000000000003</v>
       </c>
     </row>
-    <row r="278" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>44435</v>
       </c>
@@ -51887,7 +51903,7 @@
         <v>0.85550999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>44435</v>
       </c>
@@ -51925,7 +51941,7 @@
         <v>0.85538999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>44435</v>
       </c>
@@ -51963,7 +51979,7 @@
         <v>0.85553999999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>44435</v>
       </c>
@@ -52001,7 +52017,7 @@
         <v>0.72245999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>44435</v>
       </c>
@@ -52039,7 +52055,7 @@
         <v>0.72236</v>
       </c>
     </row>
-    <row r="283" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>44435</v>
       </c>
@@ -52077,7 +52093,7 @@
         <v>0.72219</v>
       </c>
     </row>
-    <row r="284" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>44435</v>
       </c>
@@ -52115,7 +52131,7 @@
         <v>0.60787000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>44435</v>
       </c>
@@ -52153,7 +52169,7 @@
         <v>0.60850000000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>44435</v>
       </c>
@@ -52191,7 +52207,7 @@
         <v>0.60851999999999995</v>
       </c>
     </row>
-    <row r="287" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>44435</v>
       </c>
@@ -52229,7 +52245,7 @@
         <v>0.54052999999999995</v>
       </c>
     </row>
-    <row r="288" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>44435</v>
       </c>
@@ -52267,7 +52283,7 @@
         <v>0.54049000000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>44435</v>
       </c>
@@ -52305,7 +52321,7 @@
         <v>0.54010999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>44435</v>
       </c>
@@ -52343,7 +52359,7 @@
         <v>0.46810000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>44435</v>
       </c>
@@ -52381,7 +52397,7 @@
         <v>0.46828999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>44435</v>
       </c>
@@ -52419,7 +52435,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>44435</v>
       </c>
@@ -52457,7 +52473,7 @@
         <v>0.37741999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>44435</v>
       </c>
@@ -52495,7 +52511,7 @@
         <v>0.37936999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>44435</v>
       </c>
@@ -52533,7 +52549,7 @@
         <v>0.38092999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>44435</v>
       </c>
@@ -52571,7 +52587,7 @@
         <v>0.38285000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>44435</v>
       </c>
@@ -52609,7 +52625,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>44435</v>
       </c>
@@ -52647,7 +52663,7 @@
         <v>0.15583</v>
       </c>
     </row>
-    <row r="299" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>44435</v>
       </c>
@@ -52685,7 +52701,7 @@
         <v>0.15584000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>44435</v>
       </c>
@@ -52723,7 +52739,7 @@
         <v>0.15587999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>44435</v>
       </c>
@@ -52761,7 +52777,7 @@
         <v>8.5258E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>44435</v>
       </c>
@@ -52799,7 +52815,7 @@
         <v>8.5348999999999994E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>44435</v>
       </c>
@@ -52837,7 +52853,7 @@
         <v>8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>44435</v>
       </c>
@@ -52875,7 +52891,7 @@
         <v>3.7872999999999997E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>44435</v>
       </c>
@@ -52913,7 +52929,7 @@
         <v>3.7772E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>44435</v>
       </c>
@@ -52951,7 +52967,7 @@
         <v>3.7851000000000003E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>44435</v>
       </c>
@@ -52989,7 +53005,7 @@
         <v>4.8623E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>44435</v>
       </c>
@@ -53027,7 +53043,7 @@
         <v>4.9138999999999997E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>44435</v>
       </c>
@@ -53065,7 +53081,7 @@
         <v>4.9798999999999998E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>44435</v>
       </c>
@@ -53103,7 +53119,7 @@
         <v>1.7850000000000001E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>44435</v>
       </c>
@@ -53141,7 +53157,7 @@
         <v>1.7881999999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>44435</v>
       </c>
@@ -53196,7 +53212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53213,22 +53229,22 @@
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="16"/>
-    <col min="3" max="3" width="12.33203125" style="16" customWidth="1"/>
-    <col min="4" max="5" width="6.44140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="16"/>
+    <col min="3" max="3" width="12.36328125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="6.453125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="16" customWidth="1"/>
     <col min="10" max="10" width="17" style="16" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="16"/>
+    <col min="11" max="11" width="17.36328125" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -53263,7 +53279,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>386</v>
       </c>
@@ -53298,7 +53314,7 @@
         <v>3.3333333332441484E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>386</v>
       </c>
@@ -53333,7 +53349,7 @@
         <v>7.6666666666613814E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>386</v>
       </c>
@@ -53368,7 +53384,7 @@
         <v>3.6666666666573811E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>386</v>
       </c>
@@ -53403,7 +53419,7 @@
         <v>4.3333333333395174E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>386</v>
       </c>
@@ -53438,7 +53454,7 @@
         <v>8.0000000000080007E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>386</v>
       </c>
@@ -53473,7 +53489,7 @@
         <v>6.3333333333415176E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>386</v>
       </c>
@@ -53508,7 +53524,7 @@
         <v>9.6666666666744838E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>386</v>
       </c>
@@ -53543,7 +53559,7 @@
         <v>1.2999999999996348E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>386</v>
       </c>
@@ -53578,7 +53594,7 @@
         <v>1.333333333330966E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>386</v>
       </c>
@@ -53613,7 +53629,7 @@
         <v>3.6999999999998145E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>386</v>
       </c>
@@ -53648,7 +53664,7 @@
         <v>4.6666666666639323E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>386</v>
       </c>
@@ -53683,7 +53699,7 @@
         <v>2.5666666666657179E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>386</v>
       </c>
@@ -53718,7 +53734,7 @@
         <v>7.6666666666613814E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>386</v>
       </c>
@@ -53753,7 +53769,7 @@
         <v>3.066666666666773E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>386</v>
       </c>
@@ -53788,7 +53804,7 @@
         <v>3.9000000000000146E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>386</v>
       </c>
@@ -53823,7 +53839,7 @@
         <v>1.9333333333337865E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>386</v>
       </c>
@@ -53858,7 +53874,7 @@
         <v>1.8666666666666831E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>386</v>
       </c>
@@ -53893,7 +53909,7 @@
         <v>4.0333333333342214E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>386</v>
       </c>
@@ -53928,7 +53944,7 @@
         <v>1.1566666666666947E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>386</v>
       </c>
@@ -53963,7 +53979,7 @@
         <v>3.7333333333328111E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>386</v>
       </c>
@@ -53998,7 +54014,7 @@
         <v>6.8000000000001393E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>386</v>
       </c>
@@ -54033,7 +54049,7 @@
         <v>2.4333333333337315E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>386</v>
       </c>
@@ -54068,7 +54084,7 @@
         <v>2.9333333333331213E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>386</v>
       </c>
@@ -54103,7 +54119,7 @@
         <v>9.6333333333331606E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>386</v>
       </c>
@@ -54138,7 +54154,7 @@
         <v>3.4749999999994508E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>386</v>
       </c>
@@ -54173,7 +54189,7 @@
         <v>4.6333333333337112E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>386</v>
       </c>
@@ -54208,7 +54224,7 @@
         <v>2.2666666666665281E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>386</v>
       </c>
@@ -54243,7 +54259,7 @@
         <v>1.7000000000000348E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>386</v>
       </c>
@@ -54278,7 +54294,7 @@
         <v>5.9999999999948983E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>386</v>
       </c>
@@ -54313,7 +54329,7 @@
         <v>2.6000000000001022E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>386</v>
       </c>
@@ -54348,7 +54364,7 @@
         <v>4.0000000000012248E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>386</v>
       </c>
@@ -54383,7 +54399,7 @@
         <v>4.9999999999994493E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>386</v>
       </c>
@@ -54418,7 +54434,7 @@
         <v>3.6666666666657077E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>386</v>
       </c>
@@ -54453,7 +54469,7 @@
         <v>6.200000000003425E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>386</v>
       </c>
@@ -54488,7 +54504,7 @@
         <v>7.4999999999936229E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>386</v>
       </c>
@@ -54523,7 +54539,7 @@
         <v>1.6500000000002624E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>386</v>
       </c>
@@ -54558,7 +54574,7 @@
         <v>9.249999999995373E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>386</v>
       </c>
@@ -54593,7 +54609,7 @@
         <v>9.3333333333334156E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
         <v>386</v>
       </c>
@@ -54628,7 +54644,7 @@
         <v>1.3333333333330477E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>386</v>
       </c>
@@ -54663,7 +54679,7 @@
         <v>4.0000000000005309E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>386</v>
       </c>
@@ -54698,7 +54714,7 @@
         <v>1.0000000000010001E-6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>386</v>
       </c>
@@ -54733,7 +54749,7 @@
         <v>2.6999999999995777E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>386</v>
       </c>
@@ -54768,7 +54784,7 @@
         <v>6.8666666666668697E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>44307</v>
       </c>
@@ -54803,7 +54819,7 @@
         <v>1.100000000000545E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>44307</v>
       </c>
@@ -54838,7 +54854,7 @@
         <v>1.5333333333333865E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>44307</v>
       </c>
@@ -54873,7 +54889,7 @@
         <v>5.9999999999948983E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>44307</v>
       </c>
@@ -54908,7 +54924,7 @@
         <v>4.0000000000040004E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>44307</v>
       </c>
@@ -54943,7 +54959,7 @@
         <v>6.0000000000060005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>44307</v>
       </c>
@@ -54978,7 +54994,7 @@
         <v>8.3333333333324155E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>44307</v>
       </c>
@@ -55013,7 +55029,7 @@
         <v>3.3333333333329662E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>44307</v>
       </c>
@@ -55048,7 +55064,7 @@
         <v>1.1666666666676484E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>44307</v>
       </c>
@@ -55083,7 +55099,7 @@
         <v>6.6666666666659324E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>44307</v>
       </c>
@@ -55118,7 +55134,7 @@
         <v>3.3333333333329662E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>44307</v>
       </c>
@@ -55153,7 +55169,7 @@
         <v>4.3333333333284152E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>44307</v>
       </c>
@@ -55188,7 +55204,7 @@
         <v>1.0333333333334416E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>44307</v>
       </c>
@@ -55223,7 +55239,7 @@
         <v>2.6666666666619321E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>44307</v>
       </c>
@@ -55258,7 +55274,7 @@
         <v>9.0000000000145519E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>44307</v>
       </c>
@@ -55293,7 +55309,7 @@
         <v>9.3333333333389668E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>44307</v>
       </c>
@@ -55328,7 +55344,7 @@
         <v>4.0000000000040004E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>44307</v>
       </c>
@@ -55363,7 +55379,7 @@
         <v>1.6666666666664831E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>44307</v>
       </c>
@@ -55398,7 +55414,7 @@
         <v>5.6666666666593812E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>44307</v>
       </c>
@@ -55433,7 +55449,7 @@
         <v>5.3333333333238642E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>44307</v>
       </c>
@@ -55468,7 +55484,7 @@
         <v>3.3333333333329662E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>44307</v>
       </c>
@@ -55503,7 +55519,7 @@
         <v>6.0000000000060005E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>44307</v>
       </c>
@@ -55538,7 +55554,7 @@
         <v>1.1000000000016552E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>44307</v>
       </c>
@@ -55573,7 +55589,7 @@
         <v>4.9999999999994493E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>44307</v>
       </c>
@@ -55608,7 +55624,7 @@
         <v>7.6666666666724836E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>44307</v>
       </c>
@@ -55643,7 +55659,7 @@
         <v>4.6666666666639323E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>44307</v>
       </c>
@@ -55678,7 +55694,7 @@
         <v>2.7466666666667028E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>44307</v>
       </c>
@@ -55713,7 +55729,7 @@
         <v>2.2333333333332539E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>44307</v>
       </c>
@@ -55748,7 +55764,7 @@
         <v>9.3333333333334156E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>44307</v>
       </c>
@@ -55783,7 +55799,7 @@
         <v>4.9999999999994493E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>44307</v>
       </c>
@@ -55818,7 +55834,7 @@
         <v>3.733333333334754E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>44307</v>
       </c>
@@ -55853,7 +55869,7 @@
         <v>1.6666666666664831E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>44307</v>
       </c>
@@ -55888,7 +55904,7 @@
         <v>1.9999999999999185E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>44307</v>
       </c>
@@ -55923,7 +55939,7 @@
         <v>5.9333333333331378E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>44307</v>
       </c>
@@ -55958,7 +55974,7 @@
         <v>1.46666666666663E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>44307</v>
       </c>
@@ -55993,7 +56009,7 @@
         <v>6.4999999999995617E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>44307</v>
       </c>
@@ -56028,7 +56044,7 @@
         <v>2.0699999999999798E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>44307</v>
       </c>
